--- a/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
         <v>174</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="R2" s="19" t="s">
         <v>286</v>

--- a/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="314">
   <si>
     <t>TCID</t>
   </si>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,11 +1581,9 @@
         <v>138</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
@@ -2323,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3600,7 @@
     <col min="42" max="42" bestFit="true" customWidth="true" style="18" width="9.28515625" collapsed="true"/>
     <col min="43" max="43" bestFit="true" customWidth="true" style="18" width="30.28515625" collapsed="true"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="18" width="9.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="18" width="7.2578125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="18" width="7.28515625" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="18" width="5.28515625" collapsed="true"/>
     <col min="47" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>

--- a/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>TCID</t>
   </si>
@@ -277,6 +277,45 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>March-1-2016</t>
+  </si>
+  <si>
+    <t>obEndDateMonth</t>
+  </si>
+  <si>
+    <t>obEndDateDate</t>
+  </si>
+  <si>
+    <t>obEndDateYear</t>
+  </si>
+  <si>
+    <t>obStartDateMonth</t>
+  </si>
+  <si>
+    <t>obStartDateYear</t>
+  </si>
+  <si>
+    <t>obStartDateDate</t>
+  </si>
+  <si>
+    <t>obPatternDateMonth</t>
+  </si>
+  <si>
+    <t>obPatternDateDate</t>
+  </si>
+  <si>
+    <t>obPatternDateYear</t>
+  </si>
+  <si>
+    <t>obEffectiveDateMonth</t>
+  </si>
+  <si>
+    <t>obEffectiveDateDate</t>
+  </si>
+  <si>
+    <t>obEffectiveDateYear</t>
   </si>
 </sst>
 </file>
@@ -361,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,9 +810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AC3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -792,40 +835,52 @@
     <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="17.140625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="17.0" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="13.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="12.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="14.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="12.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="23.28515625" collapsed="true"/>
-    <col min="26" max="26" style="6" width="24.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="20.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="22.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="28.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="24.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="14.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="14.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="13.42578125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="13.85546875" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="15.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="15.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="7.58203125" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="5.85546875" collapsed="true"/>
-    <col min="48" max="16384" style="6" width="24.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="12.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="14.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="12.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="23.28515625" collapsed="true"/>
+    <col min="38" max="38" style="6" width="24.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="20.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="28.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="24.42578125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="14.42578125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="14.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="6" width="13.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="6" width="13.85546875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="15.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="15.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="7.58203125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="5.85546875" collapsed="true"/>
+    <col min="60" max="16384" style="6" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -877,98 +932,134 @@
       <c r="Q1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -986,18 +1077,18 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -1014,12 +1105,24 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AU2" s="7"/>
+      <c r="BG2" s="7"/>
     </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
@@ -1063,32 +1166,54 @@
       <c r="Q3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
+        <v>2</v>
+      </c>
+      <c r="T3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="X3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -1096,25 +1221,39 @@
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="BB3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="BC3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="BD3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="BF3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="9"/>
+      <c r="BG3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>TCID</t>
   </si>
@@ -192,9 +192,6 @@
     <t>obServices</t>
   </si>
   <si>
-    <t>ABC News</t>
-  </si>
-  <si>
     <t>MSA</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>March-30-2020</t>
   </si>
   <si>
-    <t>Master Service Agreement - ABC News</t>
-  </si>
-  <si>
     <t>Tier - 1</t>
   </si>
   <si>
@@ -273,49 +267,55 @@
     <t>ObligationWorkflowNonWorkflow</t>
   </si>
   <si>
+    <t>March-1-2016</t>
+  </si>
+  <si>
+    <t>obEndDateMonth</t>
+  </si>
+  <si>
+    <t>obEndDateDate</t>
+  </si>
+  <si>
+    <t>obEndDateYear</t>
+  </si>
+  <si>
+    <t>obStartDateMonth</t>
+  </si>
+  <si>
+    <t>obStartDateYear</t>
+  </si>
+  <si>
+    <t>obStartDateDate</t>
+  </si>
+  <si>
+    <t>obPatternDateMonth</t>
+  </si>
+  <si>
+    <t>obPatternDateDate</t>
+  </si>
+  <si>
+    <t>obPatternDateYear</t>
+  </si>
+  <si>
+    <t>obEffectiveDateMonth</t>
+  </si>
+  <si>
+    <t>obEffectiveDateDate</t>
+  </si>
+  <si>
+    <t>obEffectiveDateYear</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - HSBC</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>March-1-2016</t>
-  </si>
-  <si>
-    <t>obEndDateMonth</t>
-  </si>
-  <si>
-    <t>obEndDateDate</t>
-  </si>
-  <si>
-    <t>obEndDateYear</t>
-  </si>
-  <si>
-    <t>obStartDateMonth</t>
-  </si>
-  <si>
-    <t>obStartDateYear</t>
-  </si>
-  <si>
-    <t>obStartDateDate</t>
-  </si>
-  <si>
-    <t>obPatternDateMonth</t>
-  </si>
-  <si>
-    <t>obPatternDateDate</t>
-  </si>
-  <si>
-    <t>obPatternDateYear</t>
-  </si>
-  <si>
-    <t>obEffectiveDateMonth</t>
-  </si>
-  <si>
-    <t>obEffectiveDateDate</t>
-  </si>
-  <si>
-    <t>obEffectiveDateYear</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -785,21 +785,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -812,9 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -933,40 +931,40 @@
         <v>26</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>34</v>
@@ -1118,25 +1116,25 @@
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="BG2" s="7"/>
     </row>
     <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
@@ -1146,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>8</v>
@@ -1158,10 +1156,10 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>28</v>
@@ -1203,16 +1201,16 @@
         <v>2017</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
@@ -1236,13 +1234,13 @@
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
       <c r="BA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="BC3" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="BD3" s="9" t="s">
         <v>6</v>
@@ -1251,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="BG3" s="9"/>
     </row>
@@ -1285,31 +1283,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>2</v>
@@ -1333,13 +1331,13 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -1349,23 +1347,23 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="L3" s="12"/>
     </row>

--- a/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Obligation Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,14 +743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="7.58203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="32.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,70 +811,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="7.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="10.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="13.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="13.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="15.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="17.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="13.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="12.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="14.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="12.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="23.28515625" collapsed="true"/>
-    <col min="38" max="38" style="6" width="24.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="20.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="22.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="28.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="24.42578125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="14.42578125" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="14.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="6" width="13.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="6" width="13.85546875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="15.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="15.140625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="7.58203125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="5.85546875" collapsed="true"/>
-    <col min="60" max="16384" style="6" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="14" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="23.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="24.7109375" style="6" collapsed="1"/>
+    <col min="39" max="39" width="18.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="28.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="23.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="24.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="14.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="14.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="17.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="13.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="17.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="7.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="5.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="16384" width="24.7109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1175,7 @@
         <v>2017</v>
       </c>
       <c r="U3" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
         <v>1</v>
@@ -1267,18 +1268,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="8.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="16.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="7.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="7.58203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="5.85546875" collapsed="true"/>
-    <col min="13" max="16384" style="6" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="9.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="24.7109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
